--- a/predictdata/alertcode.xlsx
+++ b/predictdata/alertcode.xlsx
@@ -390,7 +390,7 @@
     <t>HVAC108</t>
   </si>
   <si>
-    <t>temp_high</t>
+    <t>cabin_overtemp</t>
   </si>
   <si>
     <t>车厢温度超温</t>
@@ -2898,7 +2898,7 @@
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A67"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/predictdata/alertcode.xlsx
+++ b/predictdata/alertcode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="319">
   <si>
     <t>name</t>
   </si>
@@ -55,6 +55,9 @@
     <t>level</t>
   </si>
   <si>
+    <t>vender_subsystem</t>
+  </si>
+  <si>
     <t>fault_desc</t>
   </si>
   <si>
@@ -70,18 +73,37 @@
     <t>B2</t>
   </si>
   <si>
+    <t>机组1系统1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>机组</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -90,342 +112,1037 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷媒泄漏预警</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC101</t>
+  </si>
+  <si>
+    <t>空调系统</t>
+  </si>
+  <si>
+    <t>制冷系统</t>
+  </si>
+  <si>
+    <t>检查制冷剂是否泄漏；检查通风机运转是否正常；</t>
+  </si>
+  <si>
+    <t>可在当天运营结束后回库处理检查</t>
+  </si>
+  <si>
+    <t>ref_leak_u12</t>
+  </si>
+  <si>
+    <t>机组1系统2</t>
+  </si>
+  <si>
+    <t>机组1系统2冷媒泄漏预警</t>
+  </si>
+  <si>
+    <t>HVAC102</t>
+  </si>
+  <si>
+    <t>ref_leak_u21</t>
+  </si>
+  <si>
+    <t>机组2系统1</t>
+  </si>
+  <si>
+    <t>机组2系统1冷媒泄漏预警</t>
+  </si>
+  <si>
+    <t>HVAC103</t>
+  </si>
+  <si>
+    <t>ref_leak_u22</t>
+  </si>
+  <si>
+    <t>机组2系统2</t>
+  </si>
+  <si>
+    <t>机组2系统2冷媒泄漏预警</t>
+  </si>
+  <si>
+    <t>HVAC104</t>
+  </si>
+  <si>
+    <t>ref_pump_u1</t>
+  </si>
+  <si>
+    <t>机组1制冷系统</t>
+  </si>
+  <si>
+    <t>机组1制冷系统预警</t>
+  </si>
+  <si>
+    <t>HVAC105</t>
+  </si>
+  <si>
+    <t>检查制冷剂是否泄漏；检查通风机运转是否正常；检查冷凝风机运转是否正常</t>
+  </si>
+  <si>
+    <t>ref_pump_u2</t>
+  </si>
+  <si>
+    <t>机组2制冷系统</t>
+  </si>
+  <si>
+    <t>机组2制冷系统预警</t>
+  </si>
+  <si>
+    <t>HVAC106</t>
+  </si>
+  <si>
+    <t>fat_sensor</t>
+  </si>
+  <si>
+    <t>新风温度传感器</t>
+  </si>
+  <si>
+    <t>新风温度传感器预警</t>
+  </si>
+  <si>
+    <t>HVAC107</t>
+  </si>
+  <si>
+    <t>检查温度传感器线路是否存在短路、虚接情况；测量温度传感器电阻是否正常</t>
+  </si>
+  <si>
+    <t>rat_sensor</t>
+  </si>
+  <si>
+    <t>回风温度传感器</t>
+  </si>
+  <si>
+    <t>回风温度传感器预警</t>
+  </si>
+  <si>
+    <t>HVAC108</t>
+  </si>
+  <si>
+    <t>cabin_overtemp</t>
+  </si>
+  <si>
+    <t>车厢温度超温</t>
+  </si>
+  <si>
+    <t>车厢温度超温预警</t>
+  </si>
+  <si>
+    <t>HVAC109</t>
+  </si>
+  <si>
+    <t>检查变频器运行是否正常；</t>
+  </si>
+  <si>
+    <t>bOCFlt_EF_U11</t>
+  </si>
+  <si>
+    <t>通风机1-1过流</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通风机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过流故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC121</t>
+  </si>
+  <si>
+    <t>通风系统</t>
+  </si>
+  <si>
+    <t>检查风机是否堵转；检查电机主电路绝缘是否正常；检查电机保护器是否损坏</t>
+  </si>
+  <si>
+    <t>手动复位机组1通风机1电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_EF_U12</t>
+  </si>
+  <si>
+    <t>通风机1-2过流</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通风机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
+      <t>过流故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC122</t>
+  </si>
+  <si>
+    <t>手动复位机组1通风机2电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_CF_U11</t>
+  </si>
+  <si>
+    <t>冷凝风机1-1过流</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷凝风机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
+      <t>过流故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC123</t>
+  </si>
+  <si>
+    <t>手动复位机组1冷凝风机1电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_CF_U12</t>
+  </si>
+  <si>
+    <t>冷凝风机1-2过流</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷凝风机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>冷媒泄漏预警</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC101</t>
-  </si>
-  <si>
-    <t>空调系统</t>
-  </si>
-  <si>
-    <t>制冷系统</t>
-  </si>
-  <si>
-    <t>检查制冷剂是否泄漏；检查通风机运转是否正常；</t>
-  </si>
-  <si>
-    <t>可在当天运营结束后回库处理检查</t>
-  </si>
-  <si>
-    <t>ref_leak_u12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>过流故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC124</t>
+  </si>
+  <si>
+    <t>手动复位机组1冷凝风机2电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bFlt_VFD_U11</t>
+  </si>
+  <si>
+    <t>变频器1-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变频器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC125</t>
+  </si>
+  <si>
+    <t>检查变频器运行是否正常；检查反馈线路是否正常</t>
+  </si>
+  <si>
+    <t>维持运营到终点站后回库处理检查</t>
+  </si>
+  <si>
+    <t>bLPFlt_Comp_U11</t>
+  </si>
+  <si>
+    <t>压缩机1-1低压</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低压故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC126</t>
+  </si>
+  <si>
+    <t>传感器</t>
+  </si>
+  <si>
+    <t>检查制冷剂是否泄漏；检查通风机运转是否正常；检查低压开关是否损坏</t>
+  </si>
+  <si>
+    <t>控制器电源复位，运营结束后回库处理检查</t>
+  </si>
+  <si>
+    <t>bSCFlt_Comp_U11</t>
+  </si>
+  <si>
+    <t>压缩机1-1高压连锁</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高压连锁故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC127</t>
+  </si>
+  <si>
+    <t>检查冷凝风机运转是否正常；检查高压开关、排气温度保护是否正常；检查反馈线路是否正常</t>
+  </si>
+  <si>
+    <t>bFlt_VFD_U12</t>
+  </si>
+  <si>
+    <t>变频器1-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变频器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>机组1系统2冷媒泄漏预警</t>
-  </si>
-  <si>
-    <t>HVAC102</t>
-  </si>
-  <si>
-    <t>ref_leak_u21</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC128</t>
+  </si>
+  <si>
+    <t>bLPFlt_Comp_U12</t>
+  </si>
+  <si>
+    <t>压缩机1-2低压</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低压故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC129</t>
+  </si>
+  <si>
+    <t>bSCFlt_Comp_U12</t>
+  </si>
+  <si>
+    <t>压缩机1-2高压连锁</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高压连锁故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC130</t>
+  </si>
+  <si>
+    <t>bFlt_EEV_U11</t>
+  </si>
+  <si>
+    <t>电子膨胀阀1-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子膨胀阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC131</t>
+  </si>
+  <si>
+    <t>检查电子膨胀阀控制器显示参数是否正常；检查故障反馈线路是否正常</t>
+  </si>
+  <si>
+    <t>可维持运营到终点站后回库处理检查</t>
+  </si>
+  <si>
+    <t>bFlt_EEV_U12</t>
+  </si>
+  <si>
+    <t>电子膨胀阀1-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子膨胀阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>机组2系统1冷媒泄漏预警</t>
-  </si>
-  <si>
-    <t>HVAC103</t>
-  </si>
-  <si>
-    <t>ref_leak_u22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC132</t>
+  </si>
+  <si>
+    <t>bFlt_FAD_U1</t>
+  </si>
+  <si>
+    <t>新风阀U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新风阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC133</t>
+  </si>
+  <si>
+    <t>检查风阀执行器动作、反馈指示是否正常；检查全开反馈线路是否正常</t>
+  </si>
+  <si>
+    <t>bFlt_RAD_U1</t>
+  </si>
+  <si>
+    <t>回风阀U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回风阀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC134</t>
+  </si>
+  <si>
+    <t>bFlt_AirClean_U1</t>
+  </si>
+  <si>
+    <t>空气净化U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空气净化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC135</t>
+  </si>
+  <si>
+    <t>检查空气净化器运行是否正常；检查故障反馈线路是否正常</t>
+  </si>
+  <si>
+    <t>bFlt_ExpBoard_U1</t>
+  </si>
+  <si>
+    <t>扩展模块U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>机组2系统2冷媒泄漏预警</t>
-  </si>
-  <si>
-    <t>HVAC104</t>
-  </si>
-  <si>
-    <t>ref_pump_u1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC136</t>
+  </si>
+  <si>
+    <t>控制系统</t>
+  </si>
+  <si>
+    <t>检查扩展模块供电是否正常；检查扩展模块通讯线路是否存在虚接情况</t>
+  </si>
+  <si>
+    <t>bFlt_FrsTemp_U1</t>
+  </si>
+  <si>
+    <t>新风温度传感器U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新风温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC137</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U11</t>
+  </si>
+  <si>
+    <t>送风温度传感器1-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送风温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC138</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U12</t>
+  </si>
+  <si>
+    <t>送风温度传感器1-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>送风温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>制冷系统</t>
-    </r>
-  </si>
-  <si>
-    <t>机组1制冷系统预警</t>
-  </si>
-  <si>
-    <t>HVAC105</t>
-  </si>
-  <si>
-    <t>检查制冷剂是否泄漏；检查通风机运转是否正常；检查冷凝风机运转是否正常</t>
-  </si>
-  <si>
-    <t>ref_pump_u2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC139</t>
+  </si>
+  <si>
+    <t>bFlt_RntTemp_U1</t>
+  </si>
+  <si>
+    <t>回风温度传感器U1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回风温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>机组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC140</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U11</t>
+  </si>
+  <si>
+    <t>融霜温度传感器1-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>融霜温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体-简"/>
+      <t>1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC141</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U12</t>
+  </si>
+  <si>
+    <t>融霜温度传感器1-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>融霜温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>制冷系统</t>
-    </r>
-  </si>
-  <si>
-    <t>机组2制冷系统预警</t>
-  </si>
-  <si>
-    <t>HVAC106</t>
-  </si>
-  <si>
-    <t>fat_sensor</t>
-  </si>
-  <si>
-    <t>新风温度传感器</t>
-  </si>
-  <si>
-    <t>新风温度传感器预警</t>
-  </si>
-  <si>
-    <t>HVAC107</t>
-  </si>
-  <si>
-    <t>检查温度传感器线路是否存在短路、虚接情况；测量温度传感器电阻是否正常</t>
-  </si>
-  <si>
-    <t>rat_sensor</t>
-  </si>
-  <si>
-    <t>回风温度传感器</t>
-  </si>
-  <si>
-    <t>回风温度传感器预警</t>
-  </si>
-  <si>
-    <t>HVAC108</t>
-  </si>
-  <si>
-    <t>cabin_overtemp</t>
-  </si>
-  <si>
-    <t>车厢温度超温</t>
-  </si>
-  <si>
-    <t>车厢温度超温预警</t>
-  </si>
-  <si>
-    <t>HVAC109</t>
-  </si>
-  <si>
-    <t>检查变频器运行是否正常；</t>
-  </si>
-  <si>
-    <t>bOCFlt_EF_U11</t>
-  </si>
-  <si>
-    <t>通风机1-1过流</t>
-  </si>
-  <si>
+      <t>1-2</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>通风机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC142</t>
+  </si>
+  <si>
+    <t>bOCFlt_EF_U21</t>
+  </si>
+  <si>
+    <t>通风机2-1过流</t>
+  </si>
+  <si>
+    <t>通风机2-1过流故障</t>
+  </si>
+  <si>
+    <t>HVAC143</t>
+  </si>
+  <si>
+    <t>手动复位机组2通风机1电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_EF_U22</t>
+  </si>
+  <si>
+    <t>通风机2-2过流</t>
+  </si>
+  <si>
+    <t>通风机2-2过流故障</t>
+  </si>
+  <si>
+    <t>HVAC144</t>
+  </si>
+  <si>
+    <t>手动复位机组2通风机2电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_CF_U21</t>
+  </si>
+  <si>
+    <t>冷凝风机2-1过流</t>
+  </si>
+  <si>
+    <t>冷凝风机2-1过流故障</t>
+  </si>
+  <si>
+    <t>HVAC145</t>
+  </si>
+  <si>
+    <t>手动复位机组2冷凝风机1电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bOCFlt_CF_U22</t>
+  </si>
+  <si>
+    <t>冷凝风机2-2过流</t>
+  </si>
+  <si>
+    <t>冷凝风机2-2过流故障</t>
+  </si>
+  <si>
+    <t>HVAC146</t>
+  </si>
+  <si>
+    <t>手动复位机组2冷凝风机2电机保护器，如复位无效，可维持运营到终点站</t>
+  </si>
+  <si>
+    <t>bFlt_VFD_U21</t>
+  </si>
+  <si>
+    <t>变频器2-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变频器2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1-1</t>
+      <t>-1</t>
     </r>
     <r>
       <rPr>
@@ -433,64 +1150,70 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>过流故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC121</t>
-  </si>
-  <si>
-    <t>通风系统</t>
-  </si>
-  <si>
-    <t>检查风机是否堵转；检查电机主电路绝缘是否正常；检查电机保护器是否损坏</t>
-  </si>
-  <si>
-    <t>手动复位机组1通风机1电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_EF_U12</t>
-  </si>
-  <si>
-    <t>通风机1-2过流</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC147</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>通风机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>变频器2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>过流故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC122</t>
-  </si>
-  <si>
-    <t>手动复位机组1通风机2电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_CF_U11</t>
-  </si>
-  <si>
-    <t>冷凝风机1-1过流</t>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>bLPFlt_Comp_U21</t>
+  </si>
+  <si>
+    <t>压缩机2-1低压</t>
+  </si>
+  <si>
+    <t>压缩机2-1低压故障</t>
+  </si>
+  <si>
+    <t>HVAC148</t>
+  </si>
+  <si>
+    <t>bSCFlt_Comp_U21</t>
+  </si>
+  <si>
+    <t>压缩机2-1高压连锁</t>
+  </si>
+  <si>
+    <t>压缩机2-1高压连锁故障</t>
+  </si>
+  <si>
+    <t>HVAC149</t>
+  </si>
+  <si>
+    <t>bFlt_VFD_U22</t>
+  </si>
+  <si>
+    <t>变频器2-2</t>
   </si>
   <si>
     <r>
@@ -499,15 +1222,15 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>冷凝风机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>变频器2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1-1</t>
+      <t>-2</t>
     </r>
     <r>
       <rPr>
@@ -515,58 +1238,154 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>过流故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC123</t>
-  </si>
-  <si>
-    <t>手动复位机组1冷凝风机1电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_CF_U12</t>
-  </si>
-  <si>
-    <t>冷凝风机1-2过流</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>HVAC150</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>冷凝风机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>变频器2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="56"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>过流故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC124</t>
-  </si>
-  <si>
-    <t>手动复位机组1冷凝风机2电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bFlt_VFD_U11</t>
-  </si>
-  <si>
-    <t>变频器1-1</t>
+      <t>故障</t>
+    </r>
+  </si>
+  <si>
+    <t>bLPFlt_Comp_U22</t>
+  </si>
+  <si>
+    <t>压缩机2-2低压</t>
+  </si>
+  <si>
+    <t>压缩机2-2低压故障</t>
+  </si>
+  <si>
+    <t>HVAC151</t>
+  </si>
+  <si>
+    <t>bSCFlt_Comp_U22</t>
+  </si>
+  <si>
+    <t>压缩机2-2高压连锁</t>
+  </si>
+  <si>
+    <t>压缩机2-2高压连锁故障</t>
+  </si>
+  <si>
+    <t>HVAC152</t>
+  </si>
+  <si>
+    <t>bFlt_EEV_U21</t>
+  </si>
+  <si>
+    <t>电子膨胀阀2-1</t>
+  </si>
+  <si>
+    <t>电子膨胀阀2-1故障</t>
+  </si>
+  <si>
+    <t>HVAC153</t>
+  </si>
+  <si>
+    <t>bFlt_EEV_U22</t>
+  </si>
+  <si>
+    <t>电子膨胀阀2-2</t>
+  </si>
+  <si>
+    <t>电子膨胀阀2-2故障</t>
+  </si>
+  <si>
+    <t>HVAC154</t>
+  </si>
+  <si>
+    <t>bFlt_FAD_U2</t>
+  </si>
+  <si>
+    <t>新风阀U2</t>
+  </si>
+  <si>
+    <t>新风阀U2故障</t>
+  </si>
+  <si>
+    <t>HVAC155</t>
+  </si>
+  <si>
+    <t>bFlt_RAD_U2</t>
+  </si>
+  <si>
+    <t>回风阀U2</t>
+  </si>
+  <si>
+    <t>回风阀U2故障</t>
+  </si>
+  <si>
+    <t>HVAC156</t>
+  </si>
+  <si>
+    <t>bFlt_AirClean_U2</t>
+  </si>
+  <si>
+    <t>空气净化U2</t>
+  </si>
+  <si>
+    <t>空气净化U2故障</t>
+  </si>
+  <si>
+    <t>HVAC157</t>
+  </si>
+  <si>
+    <t>bFlt_ExpBoard_U2</t>
+  </si>
+  <si>
+    <t>扩展模块U2</t>
+  </si>
+  <si>
+    <t>扩展模块U2故障</t>
+  </si>
+  <si>
+    <t>HVAC158</t>
+  </si>
+  <si>
+    <t>bFlt_FrsTemp_U2</t>
+  </si>
+  <si>
+    <t>新风温度传感器U2</t>
+  </si>
+  <si>
+    <t>新风温度传感器U2故障</t>
+  </si>
+  <si>
+    <t>HVAC159</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U21</t>
+  </si>
+  <si>
+    <t>送风温度传感器2-1</t>
   </si>
   <si>
     <r>
@@ -575,15 +1394,15 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>变频器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+      <t>送风温度传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>1-1</t>
+      <t>2-1</t>
     </r>
     <r>
       <rPr>
@@ -595,19 +1414,61 @@
     </r>
   </si>
   <si>
-    <t>HVAC125</t>
-  </si>
-  <si>
-    <t>检查变频器运行是否正常；检查反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>维持运营到终点站后回库处理检查</t>
-  </si>
-  <si>
-    <t>bLPFlt_Comp_U11</t>
-  </si>
-  <si>
-    <t>压缩机1-1低压</t>
+    <t>HVAC160</t>
+  </si>
+  <si>
+    <t>bFlt_SplyTemp_U22</t>
+  </si>
+  <si>
+    <t>送风温度传感器2-2</t>
+  </si>
+  <si>
+    <t>送风温度传感器2-2故障</t>
+  </si>
+  <si>
+    <t>HVAC161</t>
+  </si>
+  <si>
+    <t>bFlt_RntTemp_U2</t>
+  </si>
+  <si>
+    <t>回风温度传感器U2</t>
+  </si>
+  <si>
+    <t>回风温度传感器U2故障</t>
+  </si>
+  <si>
+    <t>HVAC162</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U21</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-1</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-1故障</t>
+  </si>
+  <si>
+    <t>HVAC163</t>
+  </si>
+  <si>
+    <t>bFlt_DFSTemp_U22</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-2</t>
+  </si>
+  <si>
+    <t>融霜温度传感器2-2故障</t>
+  </si>
+  <si>
+    <t>HVAC164</t>
+  </si>
+  <si>
+    <t>bFlt_VehTemp</t>
+  </si>
+  <si>
+    <t>车厢温度传感器1</t>
   </si>
   <si>
     <r>
@@ -616,1040 +1477,12 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>压缩机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>低压故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC126</t>
-  </si>
-  <si>
-    <t>传感器</t>
-  </si>
-  <si>
-    <t>检查制冷剂是否泄漏；检查通风机运转是否正常；检查低压开关是否损坏</t>
-  </si>
-  <si>
-    <t>控制器电源复位，运营结束后回库处理检查</t>
-  </si>
-  <si>
-    <t>bSCFlt_Comp_U11</t>
-  </si>
-  <si>
-    <t>压缩机1-1高压连锁</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压缩机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高压连锁故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC127</t>
-  </si>
-  <si>
-    <t>检查冷凝风机运转是否正常；检查高压开关、排气温度保护是否正常；检查反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>bFlt_VFD_U12</t>
-  </si>
-  <si>
-    <t>变频器1-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC128</t>
-  </si>
-  <si>
-    <t>bLPFlt_Comp_U12</t>
-  </si>
-  <si>
-    <t>压缩机1-2低压</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压缩机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>低压故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC129</t>
-  </si>
-  <si>
-    <t>bSCFlt_Comp_U12</t>
-  </si>
-  <si>
-    <t>压缩机1-2高压连锁</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压缩机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高压连锁故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC130</t>
-  </si>
-  <si>
-    <t>bFlt_EEV_U11</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子膨胀阀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC131</t>
-  </si>
-  <si>
-    <t>检查电子膨胀阀控制器显示参数是否正常；检查故障反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>可维持运营到终点站后回库处理检查</t>
-  </si>
-  <si>
-    <t>bFlt_EEV_U12</t>
-  </si>
-  <si>
-    <t>电子膨胀阀1-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子膨胀阀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC132</t>
-  </si>
-  <si>
-    <t>bFlt_FAD_U1</t>
-  </si>
-  <si>
-    <t>新风阀U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新风阀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC133</t>
-  </si>
-  <si>
-    <t>检查风阀执行器动作、反馈指示是否正常；检查全开反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>bFlt_RAD_U1</t>
-  </si>
-  <si>
-    <t>回风阀U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回风阀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC134</t>
-  </si>
-  <si>
-    <t>bFlt_AirClean_U1</t>
-  </si>
-  <si>
-    <t>空气净化U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空气净化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC135</t>
-  </si>
-  <si>
-    <t>检查空气净化器运行是否正常；检查故障反馈线路是否正常</t>
-  </si>
-  <si>
-    <t>bFlt_ExpBoard_U1</t>
-  </si>
-  <si>
-    <t>扩展模块U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扩展模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC136</t>
-  </si>
-  <si>
-    <t>控制系统</t>
-  </si>
-  <si>
-    <t>检查扩展模块供电是否正常；检查扩展模块通讯线路是否存在虚接情况</t>
-  </si>
-  <si>
-    <t>bFlt_FrsTemp_U1</t>
-  </si>
-  <si>
-    <t>新风温度传感器U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC137</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U11</t>
-  </si>
-  <si>
-    <t>送风温度传感器1-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>送风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC138</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U12</t>
-  </si>
-  <si>
-    <t>送风温度传感器1-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>送风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC139</t>
-  </si>
-  <si>
-    <t>bFlt_RntTemp_U1</t>
-  </si>
-  <si>
-    <t>回风温度传感器U1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC140</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U11</t>
-  </si>
-  <si>
-    <t>融霜温度传感器1-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>融霜温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC141</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U12</t>
-  </si>
-  <si>
-    <t>融霜温度传感器1-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>融霜温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC142</t>
-  </si>
-  <si>
-    <t>bOCFlt_EF_U21</t>
-  </si>
-  <si>
-    <t>通风机2-1过流</t>
-  </si>
-  <si>
-    <t>通风机2-1过流故障</t>
-  </si>
-  <si>
-    <t>HVAC143</t>
-  </si>
-  <si>
-    <t>手动复位机组2通风机1电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_EF_U22</t>
-  </si>
-  <si>
-    <t>通风机2-2过流</t>
-  </si>
-  <si>
-    <t>通风机2-2过流故障</t>
-  </si>
-  <si>
-    <t>HVAC144</t>
-  </si>
-  <si>
-    <t>手动复位机组2通风机2电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_CF_U21</t>
-  </si>
-  <si>
-    <t>冷凝风机2-1过流</t>
-  </si>
-  <si>
-    <t>冷凝风机2-1过流故障</t>
-  </si>
-  <si>
-    <t>HVAC145</t>
-  </si>
-  <si>
-    <t>手动复位机组2冷凝风机1电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bOCFlt_CF_U22</t>
-  </si>
-  <si>
-    <t>冷凝风机2-2过流</t>
-  </si>
-  <si>
-    <t>冷凝风机2-2过流故障</t>
-  </si>
-  <si>
-    <t>HVAC146</t>
-  </si>
-  <si>
-    <t>手动复位机组2冷凝风机2电机保护器，如复位无效，可维持运营到终点站</t>
-  </si>
-  <si>
-    <t>bFlt_VFD_U21</t>
-  </si>
-  <si>
-    <t>变频器2-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC147</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>bLPFlt_Comp_U21</t>
-  </si>
-  <si>
-    <t>压缩机2-1低压</t>
-  </si>
-  <si>
-    <t>压缩机2-1低压故障</t>
-  </si>
-  <si>
-    <t>HVAC148</t>
-  </si>
-  <si>
-    <t>bSCFlt_Comp_U21</t>
-  </si>
-  <si>
-    <t>压缩机2-1高压连锁</t>
-  </si>
-  <si>
-    <t>压缩机2-1高压连锁故障</t>
-  </si>
-  <si>
-    <t>HVAC149</t>
-  </si>
-  <si>
-    <t>bFlt_VFD_U22</t>
-  </si>
-  <si>
-    <t>变频器2-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC150</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变频器2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>bLPFlt_Comp_U22</t>
-  </si>
-  <si>
-    <t>压缩机2-2低压</t>
-  </si>
-  <si>
-    <t>压缩机2-2低压故障</t>
-  </si>
-  <si>
-    <t>HVAC151</t>
-  </si>
-  <si>
-    <t>bSCFlt_Comp_U22</t>
-  </si>
-  <si>
-    <t>压缩机2-2高压连锁</t>
-  </si>
-  <si>
-    <t>压缩机2-2高压连锁故障</t>
-  </si>
-  <si>
-    <t>HVAC152</t>
-  </si>
-  <si>
-    <t>bFlt_EEV_U21</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-1</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-1故障</t>
-  </si>
-  <si>
-    <t>HVAC153</t>
-  </si>
-  <si>
-    <t>bFlt_EEV_U22</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-2</t>
-  </si>
-  <si>
-    <t>电子膨胀阀2-2故障</t>
-  </si>
-  <si>
-    <t>HVAC154</t>
-  </si>
-  <si>
-    <t>bFlt_FAD_U2</t>
-  </si>
-  <si>
-    <t>新风阀U2</t>
-  </si>
-  <si>
-    <t>新风阀U2故障</t>
-  </si>
-  <si>
-    <t>HVAC155</t>
-  </si>
-  <si>
-    <t>bFlt_RAD_U2</t>
-  </si>
-  <si>
-    <t>回风阀U2</t>
-  </si>
-  <si>
-    <t>回风阀U2故障</t>
-  </si>
-  <si>
-    <t>HVAC156</t>
-  </si>
-  <si>
-    <t>bFlt_AirClean_U2</t>
-  </si>
-  <si>
-    <t>空气净化U2</t>
-  </si>
-  <si>
-    <t>空气净化U2故障</t>
-  </si>
-  <si>
-    <t>HVAC157</t>
-  </si>
-  <si>
-    <t>bFlt_ExpBoard_U2</t>
-  </si>
-  <si>
-    <t>扩展模块U2</t>
-  </si>
-  <si>
-    <t>扩展模块U2故障</t>
-  </si>
-  <si>
-    <t>HVAC158</t>
-  </si>
-  <si>
-    <t>bFlt_FrsTemp_U2</t>
-  </si>
-  <si>
-    <t>新风温度传感器U2</t>
-  </si>
-  <si>
-    <t>新风温度传感器U2故障</t>
-  </si>
-  <si>
-    <t>HVAC159</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U21</t>
-  </si>
-  <si>
-    <t>送风温度传感器2-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>送风温度传感器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>2-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>故障</t>
-    </r>
-  </si>
-  <si>
-    <t>HVAC160</t>
-  </si>
-  <si>
-    <t>bFlt_SplyTemp_U22</t>
-  </si>
-  <si>
-    <t>送风温度传感器2-2</t>
-  </si>
-  <si>
-    <t>送风温度传感器2-2故障</t>
-  </si>
-  <si>
-    <t>HVAC161</t>
-  </si>
-  <si>
-    <t>bFlt_RntTemp_U2</t>
-  </si>
-  <si>
-    <t>回风温度传感器U2</t>
-  </si>
-  <si>
-    <t>回风温度传感器U2故障</t>
-  </si>
-  <si>
-    <t>HVAC162</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U21</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-1</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-1故障</t>
-  </si>
-  <si>
-    <t>HVAC163</t>
-  </si>
-  <si>
-    <t>bFlt_DFSTemp_U22</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-2</t>
-  </si>
-  <si>
-    <t>融霜温度传感器2-2故障</t>
-  </si>
-  <si>
-    <t>HVAC164</t>
-  </si>
-  <si>
-    <t>bFlt_VehTemp</t>
-  </si>
-  <si>
-    <t>车厢温度传感器1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>车厢温度传感器</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -1834,12 +1667,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1849,23 +1682,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体-简"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1879,7 +1707,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1917,16 +1760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1940,11 +1776,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1956,11 +1791,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1980,46 +1854,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2032,30 +1867,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="56"/>
-      <name val="Arial"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -2080,7 +1902,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,19 +2016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,7 +2028,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,43 +2058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,85 +2070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,6 +2138,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2340,6 +2177,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2354,119 +2202,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2475,65 +2297,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2552,27 +2374,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2897,8 +2725,8 @@
   <sheetPr/>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2955,40 +2783,40 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -3002,42 +2830,42 @@
         <v>5</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="15">
+        <v>22</v>
+      </c>
+      <c r="M2" s="16">
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
@@ -3051,42 +2879,42 @@
         <v>5</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="15">
+        <v>22</v>
+      </c>
+      <c r="M3" s="16">
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -3100,42 +2928,42 @@
         <v>5</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="15">
+        <v>22</v>
+      </c>
+      <c r="M4" s="16">
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -3149,42 +2977,42 @@
         <v>5</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="15">
+        <v>22</v>
+      </c>
+      <c r="M5" s="16">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="14" t="s">
         <v>39</v>
       </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -3198,42 +3026,42 @@
         <v>5</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="15">
+        <v>22</v>
+      </c>
+      <c r="M6" s="16">
         <v>0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -3247,42 +3075,42 @@
         <v>5</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="15">
+        <v>22</v>
+      </c>
+      <c r="M7" s="16">
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -3296,42 +3124,42 @@
         <v>5</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="15">
+        <v>22</v>
+      </c>
+      <c r="M8" s="16">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="E9" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -3345,42 +3173,42 @@
         <v>5</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="15">
+        <v>22</v>
+      </c>
+      <c r="M9" s="16">
         <v>0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -3394,42 +3222,42 @@
         <v>5</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="15">
+        <v>22</v>
+      </c>
+      <c r="M10" s="16">
         <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:17">
       <c r="A11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="E11" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -3443,42 +3271,42 @@
         <v>5</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="15">
+        <v>22</v>
+      </c>
+      <c r="M11" s="16">
         <v>1</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:17">
       <c r="A12" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="E12" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -3492,42 +3320,42 @@
         <v>5</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="15">
+        <v>22</v>
+      </c>
+      <c r="M12" s="16">
         <v>1</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:17">
       <c r="A13" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="E13" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -3541,42 +3369,42 @@
         <v>5</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="15">
+        <v>22</v>
+      </c>
+      <c r="M13" s="16">
         <v>2</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:17">
       <c r="A14" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5">
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="E14" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -3590,42 +3418,42 @@
         <v>5</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="15">
+        <v>22</v>
+      </c>
+      <c r="M14" s="16">
         <v>2</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:17">
       <c r="A15" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -3639,42 +3467,42 @@
         <v>5</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="15">
+        <v>22</v>
+      </c>
+      <c r="M15" s="16">
         <v>2</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:17">
       <c r="A16" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="E16" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -3688,42 +3516,42 @@
         <v>5</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="15">
+        <v>22</v>
+      </c>
+      <c r="M16" s="16">
         <v>2</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:17">
       <c r="A17" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="E17" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -3737,42 +3565,42 @@
         <v>5</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="15">
+        <v>22</v>
+      </c>
+      <c r="M17" s="16">
         <v>2</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:17">
       <c r="A18" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="E18" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -3786,42 +3614,42 @@
         <v>5</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="15">
+        <v>22</v>
+      </c>
+      <c r="M18" s="16">
         <v>2</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>102</v>
+        <v>23</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:17">
       <c r="A19" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5">
         <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="5" t="s">
         <v>106</v>
       </c>
+      <c r="E19" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -3835,42 +3663,42 @@
         <v>5</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="15">
+        <v>22</v>
+      </c>
+      <c r="M19" s="16">
         <v>2</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:17">
       <c r="A20" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="5" t="s">
         <v>110</v>
       </c>
+      <c r="E20" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -3884,42 +3712,42 @@
         <v>5</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="15">
+        <v>22</v>
+      </c>
+      <c r="M20" s="16">
         <v>2</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:17">
       <c r="A21" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="E21" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -3933,42 +3761,42 @@
         <v>5</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="15">
+        <v>22</v>
+      </c>
+      <c r="M21" s="16">
         <v>2</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:17">
       <c r="A22" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="E22" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -3982,42 +3810,42 @@
         <v>5</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="15">
+        <v>22</v>
+      </c>
+      <c r="M22" s="16">
         <v>2</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:17">
       <c r="A23" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="E23" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="F23" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -4031,42 +3859,42 @@
         <v>5</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="15">
+        <v>22</v>
+      </c>
+      <c r="M23" s="16">
         <v>3</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>124</v>
+        <v>65</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:17">
       <c r="A24" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="5">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="E24" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
@@ -4080,42 +3908,42 @@
         <v>5</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="15">
+        <v>22</v>
+      </c>
+      <c r="M24" s="16">
         <v>3</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>129</v>
+        <v>65</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:17">
       <c r="A25" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5">
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="E25" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="5">
         <v>1</v>
@@ -4129,42 +3957,42 @@
         <v>5</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="15">
+        <v>22</v>
+      </c>
+      <c r="M25" s="16">
         <v>3</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>133</v>
+        <v>65</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:17">
       <c r="A26" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="E26" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -4178,42 +4006,42 @@
         <v>5</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="15">
+        <v>22</v>
+      </c>
+      <c r="M26" s="16">
         <v>2</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:17">
       <c r="A27" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="E27" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -4227,42 +4055,42 @@
         <v>5</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="15">
+        <v>22</v>
+      </c>
+      <c r="M27" s="16">
         <v>3</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>144</v>
+        <v>93</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:17">
       <c r="A28" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="E28" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -4276,42 +4104,42 @@
         <v>5</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="15">
+        <v>22</v>
+      </c>
+      <c r="M28" s="16">
         <v>3</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>148</v>
+        <v>93</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:17">
       <c r="A29" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="E29" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="F29" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -4325,42 +4153,42 @@
         <v>5</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="15">
+        <v>22</v>
+      </c>
+      <c r="M29" s="16">
         <v>3</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>152</v>
+        <v>93</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:17">
       <c r="A30" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="5" t="s">
         <v>156</v>
       </c>
+      <c r="E30" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="F30" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -4374,42 +4202,42 @@
         <v>5</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="15">
+        <v>22</v>
+      </c>
+      <c r="M30" s="16">
         <v>3</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>156</v>
+        <v>93</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="17" spans="1:17">
       <c r="A31" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="5" t="s">
         <v>160</v>
       </c>
+      <c r="E31" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="F31" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G31" s="5">
         <v>1</v>
@@ -4423,42 +4251,42 @@
         <v>5</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="15">
+        <v>22</v>
+      </c>
+      <c r="M31" s="16">
         <v>3</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>160</v>
+        <v>93</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="17" spans="1:17">
       <c r="A32" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="E32" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -4472,42 +4300,42 @@
         <v>5</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="15">
+        <v>22</v>
+      </c>
+      <c r="M32" s="16">
         <v>3</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>164</v>
+        <v>93</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="17" spans="1:17">
       <c r="A33" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -4521,42 +4349,42 @@
         <v>5</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="15">
+        <v>22</v>
+      </c>
+      <c r="M33" s="16">
         <v>1</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:17">
       <c r="A34" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -4570,42 +4398,42 @@
         <v>5</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="15">
+        <v>22</v>
+      </c>
+      <c r="M34" s="16">
         <v>1</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" ht="17" spans="1:17">
       <c r="A35" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G35" s="5">
         <v>1</v>
@@ -4619,42 +4447,42 @@
         <v>5</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="15">
+        <v>22</v>
+      </c>
+      <c r="M35" s="16">
         <v>2</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" ht="17" spans="1:17">
       <c r="A36" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -4668,42 +4496,42 @@
         <v>5</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="15">
+        <v>22</v>
+      </c>
+      <c r="M36" s="16">
         <v>2</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" ht="17" spans="1:17">
       <c r="A37" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="5" t="s">
         <v>188</v>
       </c>
+      <c r="E37" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -4717,42 +4545,42 @@
         <v>5</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="15">
+        <v>22</v>
+      </c>
+      <c r="M37" s="16">
         <v>2</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>190</v>
+        <v>23</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="17" spans="1:17">
       <c r="A38" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -4766,42 +4594,42 @@
         <v>5</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="15">
+        <v>22</v>
+      </c>
+      <c r="M38" s="16">
         <v>2</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" ht="17" spans="1:17">
       <c r="A39" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -4815,42 +4643,42 @@
         <v>5</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="15">
+        <v>22</v>
+      </c>
+      <c r="M39" s="16">
         <v>2</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" ht="17" spans="1:17">
       <c r="A40" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" s="5" t="s">
         <v>201</v>
       </c>
+      <c r="E40" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="F40" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -4864,42 +4692,42 @@
         <v>5</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="15">
+        <v>22</v>
+      </c>
+      <c r="M40" s="16">
         <v>2</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>203</v>
+        <v>23</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" ht="17" spans="1:17">
       <c r="A41" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -4913,42 +4741,42 @@
         <v>5</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="15">
+        <v>22</v>
+      </c>
+      <c r="M41" s="16">
         <v>2</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="17" spans="1:17">
       <c r="A42" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -4962,42 +4790,42 @@
         <v>5</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="15">
+        <v>22</v>
+      </c>
+      <c r="M42" s="16">
         <v>2</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" ht="17" spans="1:17">
       <c r="A43" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -5011,42 +4839,42 @@
         <v>5</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="15">
+        <v>22</v>
+      </c>
+      <c r="M43" s="16">
         <v>2</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" ht="17" spans="1:17">
       <c r="A44" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -5060,42 +4888,42 @@
         <v>5</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="15">
+        <v>22</v>
+      </c>
+      <c r="M44" s="16">
         <v>2</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:17">
       <c r="A45" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -5109,42 +4937,42 @@
         <v>5</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="15">
+        <v>22</v>
+      </c>
+      <c r="M45" s="16">
         <v>3</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="17" spans="1:17">
       <c r="A46" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -5158,42 +4986,42 @@
         <v>5</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="15">
+        <v>22</v>
+      </c>
+      <c r="M46" s="16">
         <v>3</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="17" spans="1:17">
       <c r="A47" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -5207,42 +5035,42 @@
         <v>5</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="15">
+        <v>22</v>
+      </c>
+      <c r="M47" s="16">
         <v>3</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="17" spans="1:17">
       <c r="A48" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -5256,42 +5084,42 @@
         <v>5</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="15">
+        <v>22</v>
+      </c>
+      <c r="M48" s="16">
         <v>2</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" ht="17" spans="1:17">
       <c r="A49" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -5305,42 +5133,42 @@
         <v>5</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="15">
+        <v>22</v>
+      </c>
+      <c r="M49" s="16">
         <v>3</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="17" spans="1:17">
       <c r="A50" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" s="5" t="s">
         <v>242</v>
       </c>
+      <c r="E50" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="F50" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -5354,42 +5182,42 @@
         <v>5</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="15">
+        <v>22</v>
+      </c>
+      <c r="M50" s="16">
         <v>3</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>242</v>
+        <v>93</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="17" spans="1:17">
       <c r="A51" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -5403,42 +5231,42 @@
         <v>5</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="15">
+        <v>22</v>
+      </c>
+      <c r="M51" s="16">
         <v>3</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="17" spans="1:17">
       <c r="A52" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -5452,42 +5280,42 @@
         <v>5</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="15">
+        <v>22</v>
+      </c>
+      <c r="M52" s="16">
         <v>3</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="17" spans="1:17">
       <c r="A53" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
@@ -5501,42 +5329,42 @@
         <v>5</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="15">
+        <v>22</v>
+      </c>
+      <c r="M53" s="16">
         <v>3</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="17" spans="1:17">
       <c r="A54" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G54" s="5">
         <v>1</v>
@@ -5550,42 +5378,42 @@
         <v>5</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="15">
+        <v>22</v>
+      </c>
+      <c r="M54" s="16">
         <v>3</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="17" spans="1:17">
       <c r="A55" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E55" s="5" t="s">
         <v>262</v>
       </c>
+      <c r="E55" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -5599,42 +5427,42 @@
         <v>5</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="15">
+        <v>22</v>
+      </c>
+      <c r="M55" s="16">
         <v>3</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>262</v>
+        <v>93</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="17" spans="1:17">
       <c r="A56" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
@@ -5648,42 +5476,42 @@
         <v>5</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="15">
+        <v>22</v>
+      </c>
+      <c r="M56" s="16">
         <v>3</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="17" spans="1:17">
       <c r="A57" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -5697,42 +5525,42 @@
         <v>5</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="15">
+        <v>22</v>
+      </c>
+      <c r="M57" s="16">
         <v>1</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" ht="17" spans="1:17">
       <c r="A58" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -5746,42 +5574,42 @@
         <v>5</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" s="15">
+        <v>22</v>
+      </c>
+      <c r="M58" s="16">
         <v>2</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" ht="17" spans="1:17">
       <c r="A59" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -5795,42 +5623,42 @@
         <v>5</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="15">
+        <v>22</v>
+      </c>
+      <c r="M59" s="16">
         <v>2</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" ht="17" spans="1:17">
       <c r="A60" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -5844,42 +5672,42 @@
         <v>5</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="15">
+        <v>22</v>
+      </c>
+      <c r="M60" s="16">
         <v>2</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" ht="17" spans="1:17">
       <c r="A61" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G61" s="5">
         <v>1</v>
@@ -5893,42 +5721,42 @@
         <v>5</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="15">
+        <v>22</v>
+      </c>
+      <c r="M61" s="16">
         <v>2</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" ht="17" spans="1:17">
       <c r="A62" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B62" s="5">
         <v>0</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G62" s="5">
         <v>1</v>
@@ -5942,42 +5770,42 @@
         <v>5</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="15">
+        <v>22</v>
+      </c>
+      <c r="M62" s="16">
         <v>2</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" ht="17" spans="1:17">
       <c r="A63" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -5991,42 +5819,42 @@
         <v>5</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="15">
+        <v>22</v>
+      </c>
+      <c r="M63" s="16">
         <v>2</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" ht="17" spans="1:17">
       <c r="A64" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
@@ -6040,42 +5868,42 @@
         <v>5</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="15">
+        <v>22</v>
+      </c>
+      <c r="M64" s="16">
         <v>2</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" ht="17" spans="1:17">
       <c r="A65" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B65" s="5">
         <v>0</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G65" s="5">
         <v>1</v>
@@ -6089,42 +5917,42 @@
         <v>5</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="15">
+        <v>22</v>
+      </c>
+      <c r="M65" s="16">
         <v>2</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" ht="17" spans="1:17">
       <c r="A66" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G66" s="5">
         <v>1</v>
@@ -6138,42 +5966,42 @@
         <v>5</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="15">
+        <v>22</v>
+      </c>
+      <c r="M66" s="16">
         <v>1</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:17">
       <c r="A67" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B67" s="5">
         <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -6187,74 +6015,74 @@
         <v>5</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="15">
+        <v>22</v>
+      </c>
+      <c r="M67" s="16">
         <v>1</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="11"/>
+      <c r="A68" s="19"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="11"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="11"/>
+      <c r="A70" s="19"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="11"/>
+      <c r="A71" s="19"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="11"/>
+      <c r="A72" s="19"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="16"/>
+      <c r="A73" s="20"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="16"/>
+      <c r="A74" s="20"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="16"/>
+      <c r="A75" s="20"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="16"/>
+      <c r="A76" s="20"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="16"/>
+      <c r="A77" s="20"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="16"/>
+      <c r="A78" s="20"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="16"/>
+      <c r="A79" s="20"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="16"/>
+      <c r="A80" s="20"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="16"/>
+      <c r="A81" s="20"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="16"/>
+      <c r="A82" s="20"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="16"/>
+      <c r="A83" s="20"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="16"/>
+      <c r="A84" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
